--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.31805480260975</v>
+        <v>0.335983</v>
       </c>
       <c r="N2">
-        <v>0.31805480260975</v>
+        <v>1.007949</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4945457382278176</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4945457382278176</v>
       </c>
       <c r="Q2">
-        <v>17.67083692022441</v>
+        <v>20.77875115294433</v>
       </c>
       <c r="R2">
-        <v>17.67083692022441</v>
+        <v>187.008760376499</v>
       </c>
       <c r="S2">
-        <v>0.03058708006445994</v>
+        <v>0.01559393812458442</v>
       </c>
       <c r="T2">
-        <v>0.03058708006445994</v>
+        <v>0.01559393812458441</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,57 +596,57 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1361.3754564882</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>1361.3754564882</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.31805480260975</v>
+        <v>0.343394</v>
       </c>
       <c r="N3">
-        <v>0.31805480260975</v>
+        <v>1.030182</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5054542617721824</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5054542617721824</v>
       </c>
       <c r="Q3">
-        <v>432.9920020911127</v>
+        <v>21.23708185656466</v>
       </c>
       <c r="R3">
-        <v>432.9920020911127</v>
+        <v>191.133736709082</v>
       </c>
       <c r="S3">
-        <v>0.7494812551902312</v>
+        <v>0.01593790396643146</v>
       </c>
       <c r="T3">
-        <v>0.7494812551902312</v>
+        <v>0.01593790396643146</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>241.126779126896</v>
+        <v>1361.379069</v>
       </c>
       <c r="H4">
-        <v>241.126779126896</v>
+        <v>4084.137207</v>
       </c>
       <c r="I4">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J4">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.31805480260975</v>
+        <v>0.335983</v>
       </c>
       <c r="N4">
-        <v>0.31805480260975</v>
+        <v>1.007949</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.4945457382278176</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.4945457382278176</v>
       </c>
       <c r="Q4">
-        <v>76.6915301391297</v>
+        <v>457.4002237398269</v>
       </c>
       <c r="R4">
-        <v>76.6915301391297</v>
+        <v>4116.602013658443</v>
       </c>
       <c r="S4">
-        <v>0.1327480969476183</v>
+        <v>0.3432675397413975</v>
       </c>
       <c r="T4">
-        <v>0.1327480969476183</v>
+        <v>0.3432675397413976</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>133.49876153682</v>
+        <v>1361.379069</v>
       </c>
       <c r="H5">
-        <v>133.49876153682</v>
+        <v>4084.137207</v>
       </c>
       <c r="I5">
-        <v>0.07349538945050349</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J5">
-        <v>0.07349538945050349</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.31805480260975</v>
+        <v>0.343394</v>
       </c>
       <c r="N5">
-        <v>0.31805480260975</v>
+        <v>1.030182</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.5054542617721824</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5054542617721824</v>
       </c>
       <c r="Q5">
-        <v>42.45992224923938</v>
+        <v>467.4894040201859</v>
       </c>
       <c r="R5">
-        <v>42.45992224923938</v>
+        <v>4207.404636181674</v>
       </c>
       <c r="S5">
-        <v>0.07349538945050349</v>
+        <v>0.3508392196687256</v>
       </c>
       <c r="T5">
-        <v>0.07349538945050349</v>
+        <v>0.3508392196687257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,365 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>251.007014</v>
+      </c>
+      <c r="H6">
+        <v>753.021042</v>
+      </c>
+      <c r="I6">
+        <v>0.127977334927537</v>
+      </c>
+      <c r="J6">
+        <v>0.1279773349275369</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.335983</v>
+      </c>
+      <c r="N6">
+        <v>1.007949</v>
+      </c>
+      <c r="O6">
+        <v>0.4945457382278176</v>
+      </c>
+      <c r="P6">
+        <v>0.4945457382278176</v>
+      </c>
+      <c r="Q6">
+        <v>84.334089584762</v>
+      </c>
+      <c r="R6">
+        <v>759.0068062628579</v>
+      </c>
+      <c r="S6">
+        <v>0.06329064557816744</v>
+      </c>
+      <c r="T6">
+        <v>0.06329064557816741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>24.8635304977225</v>
-      </c>
-      <c r="H6">
-        <v>24.8635304977225</v>
-      </c>
-      <c r="I6">
-        <v>0.01368817834718704</v>
-      </c>
-      <c r="J6">
-        <v>0.01368817834718704</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.31805480260975</v>
-      </c>
-      <c r="N6">
-        <v>0.31805480260975</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>7.907965284634629</v>
-      </c>
-      <c r="R6">
-        <v>7.907965284634629</v>
-      </c>
-      <c r="S6">
-        <v>0.01368817834718704</v>
-      </c>
-      <c r="T6">
-        <v>0.01368817834718704</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>251.007014</v>
+      </c>
+      <c r="H7">
+        <v>753.021042</v>
+      </c>
+      <c r="I7">
+        <v>0.127977334927537</v>
+      </c>
+      <c r="J7">
+        <v>0.1279773349275369</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.343394</v>
+      </c>
+      <c r="N7">
+        <v>1.030182</v>
+      </c>
+      <c r="O7">
+        <v>0.5054542617721824</v>
+      </c>
+      <c r="P7">
+        <v>0.5054542617721824</v>
+      </c>
+      <c r="Q7">
+        <v>86.194302565516</v>
+      </c>
+      <c r="R7">
+        <v>775.7487230896439</v>
+      </c>
+      <c r="S7">
+        <v>0.06468668934936954</v>
+      </c>
+      <c r="T7">
+        <v>0.06468668934936952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>260.0315303333334</v>
+      </c>
+      <c r="H8">
+        <v>780.094591</v>
+      </c>
+      <c r="I8">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="J8">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.335983</v>
+      </c>
+      <c r="N8">
+        <v>1.007949</v>
+      </c>
+      <c r="O8">
+        <v>0.4945457382278176</v>
+      </c>
+      <c r="P8">
+        <v>0.4945457382278176</v>
+      </c>
+      <c r="Q8">
+        <v>87.36617365598434</v>
+      </c>
+      <c r="R8">
+        <v>786.295562903859</v>
+      </c>
+      <c r="S8">
+        <v>0.06556614957969061</v>
+      </c>
+      <c r="T8">
+        <v>0.06556614957969061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>260.0315303333334</v>
+      </c>
+      <c r="H9">
+        <v>780.094591</v>
+      </c>
+      <c r="I9">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="J9">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.343394</v>
+      </c>
+      <c r="N9">
+        <v>1.030182</v>
+      </c>
+      <c r="O9">
+        <v>0.5054542617721824</v>
+      </c>
+      <c r="P9">
+        <v>0.5054542617721824</v>
+      </c>
+      <c r="Q9">
+        <v>89.29326732728467</v>
+      </c>
+      <c r="R9">
+        <v>803.639405945562</v>
+      </c>
+      <c r="S9">
+        <v>0.0670123856527511</v>
+      </c>
+      <c r="T9">
+        <v>0.0670123856527511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H10">
+        <v>81.231988</v>
+      </c>
+      <c r="I10">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J10">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.335983</v>
+      </c>
+      <c r="N10">
+        <v>1.007949</v>
+      </c>
+      <c r="O10">
+        <v>0.4945457382278176</v>
+      </c>
+      <c r="P10">
+        <v>0.4945457382278176</v>
+      </c>
+      <c r="Q10">
+        <v>9.097522341401334</v>
+      </c>
+      <c r="R10">
+        <v>81.877701072612</v>
+      </c>
+      <c r="S10">
+        <v>0.006827465203977593</v>
+      </c>
+      <c r="T10">
+        <v>0.006827465203977592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H11">
+        <v>81.231988</v>
+      </c>
+      <c r="I11">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J11">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.343394</v>
+      </c>
+      <c r="N11">
+        <v>1.030182</v>
+      </c>
+      <c r="O11">
+        <v>0.5054542617721824</v>
+      </c>
+      <c r="P11">
+        <v>0.5054542617721824</v>
+      </c>
+      <c r="Q11">
+        <v>9.298192429090667</v>
+      </c>
+      <c r="R11">
+        <v>83.683731861816</v>
+      </c>
+      <c r="S11">
+        <v>0.006978063134904687</v>
+      </c>
+      <c r="T11">
+        <v>0.006978063134904687</v>
       </c>
     </row>
   </sheetData>
